--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,51 +427,40 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Gift</v>
+        <v>Garage Sale</v>
       </c>
       <c r="B3">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1">
-        <v>45858.833333333336</v>
+        <v>45857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Sugar Momma</v>
+        <v>Freelance Work</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1">
-        <v>45850.833333333336</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Birthday Gift</v>
+        <v>Task</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C5" s="1">
-        <v>45843.833333333336</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Solar System</v>
-      </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45841.833333333336</v>
+        <v>45842</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>